--- a/matlab/logDataProcess/sri-conflat-45.xlsx
+++ b/matlab/logDataProcess/sri-conflat-45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>reactor</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>sri-conflat</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>seq</t>
   </si>
 </sst>
 </file>
@@ -924,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -935,21 +941,22 @@
     <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,92 +967,90 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2">
         <v>19</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>0.9</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>1.6</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>187</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>1/0.627</f>
-        <v>1.594896331738437</v>
-      </c>
-      <c r="R2" s="2">
-        <f>1/1.56</f>
-        <v>0.64102564102564097</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/sri-conflat-45.xlsx
+++ b/matlab/logDataProcess/sri-conflat-45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>reactor</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>seq</t>
+  </si>
+  <si>
+    <t>coreL</t>
   </si>
 </sst>
 </file>
@@ -930,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -947,16 +950,17 @@
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,25 +992,28 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1035,21 +1042,24 @@
         <v>14</v>
       </c>
       <c r="K2" s="2">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>0.9</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>1.6</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>187</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
